--- a/data/trans_dic/P1002-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1002-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,09%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,26</t>
+          <t>0,0; 4,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,76; 11,29</t>
+          <t>2,64; 11,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,9</t>
+          <t>1,39; 5,47</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,24%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 5,85</t>
+          <t>1,09; 6,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 9,57</t>
+          <t>3,01; 8,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 6,65</t>
+          <t>2,71; 6,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,35%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,61; 7,71</t>
+          <t>3,66; 7,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,94; 7,27</t>
+          <t>3,9; 7,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,19; 6,7</t>
+          <t>4,21; 6,67</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>6,46%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 8,4</t>
+          <t>1,76; 7,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,37; 12,87</t>
+          <t>6,79; 11,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,23; 9,65</t>
+          <t>3,91; 8,29</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>10,05%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,82; 10,15</t>
+          <t>5,75; 10,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,73; 15,15</t>
+          <t>10,63; 15,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,82; 11,68</t>
+          <t>8,68; 11,56</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>8,6%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,08; 15,91</t>
+          <t>7,33; 14,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,38; 20,38</t>
+          <t>8,83; 17,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,74; 12,64</t>
+          <t>6,09; 12,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,34; 11,0</t>
+          <t>5,72; 10,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,69; 19,33</t>
+          <t>10,78; 17,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,65; 30,46</t>
+          <t>17,05; 25,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,39; 24,94</t>
+          <t>13,98; 22,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,82; 20,83</t>
+          <t>3,24; 14,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,9; 17,06</t>
+          <t>10,08; 15,11</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20,2; 25,03</t>
+          <t>14,61; 20,52</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,34; 18,72</t>
+          <t>11,33; 16,58</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,41; 15,93</t>
+          <t>3,9; 11,49</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>21,5%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>31,9%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>24,58%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>24,64%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>27,83%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>19,11%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>11,98; 21,71</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>16,66; 27,91</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>8,15; 15,65</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>8,11; 14,04</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>14,12; 23,3</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>26,85; 37,01</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>19,74; 29,3</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>21,69; 27,57</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>14,71; 21,05</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>24,41; 31,8</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>16,58; 23,42</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>17,08; 21,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5,2%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6,73%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5,34%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5,43%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>8,49%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>13,95%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>10,67%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>9,98%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>10,41%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>8,06%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>7,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>4,53; 6,07</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>5,94; 7,73</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>4,66; 6,21</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>5,05; 6,8</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4,29; 6,42</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>7,59; 9,47</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>12,89; 15,13</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>9,53; 11,84</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>9,59; 11,84</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>8,18; 11,04</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>6,28; 7,57</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>9,71; 11,18</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>7,42; 8,75</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>7,74; 9,16</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>6,69; 8,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P1002-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1002-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,26</t>
+          <t>0,77; 3,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,49</t>
+          <t>1,0; 3,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,99</t>
+          <t>1,02; 4,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,74</t>
+          <t>0,0; 4,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,73</t>
+          <t>1,61; 4,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 6,89</t>
+          <t>2,72; 6,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,03</t>
+          <t>1,02; 4,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,64; 11,14</t>
+          <t>2,89; 10,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,6</t>
+          <t>1,44; 3,34</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 4,48</t>
+          <t>2,13; 4,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,47</t>
+          <t>1,38; 3,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,47</t>
+          <t>1,58; 5,58</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,01</t>
+          <t>1,51; 3,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,16</t>
+          <t>1,62; 4,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 5,7</t>
+          <t>2,31; 5,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 6,01</t>
+          <t>1,3; 6,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,5; 8,23</t>
+          <t>4,2; 8,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 7,12</t>
+          <t>3,5; 7,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 5,68</t>
+          <t>2,51; 5,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 8,3</t>
+          <t>2,76; 8,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 5,52</t>
+          <t>3,05; 5,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,11</t>
+          <t>2,88; 5,08</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,07</t>
+          <t>2,82; 5,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,71; 6,12</t>
+          <t>2,87; 6,35</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 6,19</t>
+          <t>2,47; 5,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,13; 6,47</t>
+          <t>3,0; 6,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,14</t>
+          <t>2,1; 5,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 7,8</t>
+          <t>3,52; 7,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 7,02</t>
+          <t>3,66; 7,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,78; 13,89</t>
+          <t>9,17; 14,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,32; 8,01</t>
+          <t>4,33; 8,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 7,17</t>
+          <t>3,98; 7,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 5,84</t>
+          <t>3,56; 5,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,39; 9,45</t>
+          <t>6,55; 9,57</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 5,84</t>
+          <t>3,63; 6,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,67</t>
+          <t>4,1; 6,71</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,89</t>
+          <t>3,0; 6,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,64; 9,1</t>
+          <t>4,61; 9,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,55; 8,41</t>
+          <t>4,62; 8,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 7,32</t>
+          <t>1,99; 7,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,31; 12,74</t>
+          <t>7,47; 12,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,23; 16,05</t>
+          <t>10,45; 15,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,56; 12,32</t>
+          <t>7,39; 12,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,79; 11,54</t>
+          <t>6,81; 11,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,74; 8,82</t>
+          <t>5,72; 9,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,14; 11,71</t>
+          <t>8,11; 11,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,48; 9,74</t>
+          <t>6,47; 9,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,29</t>
+          <t>3,67; 8,35</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,08; 9,99</t>
+          <t>5,09; 10,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,69; 12,25</t>
+          <t>6,56; 12,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,7; 8,34</t>
+          <t>3,86; 8,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,75; 10,09</t>
+          <t>6,01; 10,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,36; 13,21</t>
+          <t>7,21; 13,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,86; 23,84</t>
+          <t>16,25; 23,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,76; 19,75</t>
+          <t>12,94; 19,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,63; 15,03</t>
+          <t>10,4; 14,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,92; 11,04</t>
+          <t>6,9; 10,94</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,39; 17,24</t>
+          <t>12,2; 17,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,09; 13,37</t>
+          <t>8,96; 13,33</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,68; 11,56</t>
+          <t>8,53; 11,59</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,33; 14,19</t>
+          <t>7,35; 14,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,83; 17,05</t>
+          <t>9,29; 16,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,09; 12,61</t>
+          <t>6,03; 12,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,72; 10,02</t>
+          <t>5,33; 9,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,78; 17,88</t>
+          <t>11,14; 18,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,05; 25,69</t>
+          <t>17,38; 26,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,98; 22,11</t>
+          <t>13,86; 21,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,24; 14,49</t>
+          <t>3,75; 14,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,08; 15,11</t>
+          <t>9,94; 15,17</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14,61; 20,52</t>
+          <t>14,41; 20,33</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11,33; 16,58</t>
+          <t>11,06; 16,18</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,9; 11,49</t>
+          <t>4,17; 11,38</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,98; 21,71</t>
+          <t>11,41; 21,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,66; 27,91</t>
+          <t>16,17; 27,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,15; 15,65</t>
+          <t>8,27; 15,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,11; 14,04</t>
+          <t>8,12; 14,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,12; 23,3</t>
+          <t>14,3; 23,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,85; 37,01</t>
+          <t>26,9; 36,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,74; 29,3</t>
+          <t>19,56; 29,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>21,69; 27,57</t>
+          <t>21,79; 28,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,71; 21,05</t>
+          <t>14,39; 21,34</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>24,41; 31,8</t>
+          <t>24,17; 31,54</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>16,58; 23,42</t>
+          <t>16,25; 23,33</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,08; 21,47</t>
+          <t>16,97; 21,29</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,53; 6,07</t>
+          <t>4,47; 6,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,94; 7,73</t>
+          <t>5,91; 7,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,66; 6,21</t>
+          <t>4,64; 6,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,29; 6,42</t>
+          <t>4,16; 6,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,59; 9,47</t>
+          <t>7,49; 9,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,89; 15,13</t>
+          <t>12,88; 15,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,53; 11,84</t>
+          <t>9,62; 11,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,18; 11,04</t>
+          <t>8,13; 11,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,28; 7,57</t>
+          <t>6,26; 7,53</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9,71; 11,18</t>
+          <t>9,66; 11,17</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>7,42; 8,75</t>
+          <t>7,38; 8,7</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,69; 8,58</t>
+          <t>6,71; 8,55</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que dejo de hacer algunas tareas por problemas emocionales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8552</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9197</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9315</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3443</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>13403</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>19411</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8845</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>18577</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>21955</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>28608</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>18160</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>22021</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3807; 17083</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4550; 15984</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4267; 16990</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16846</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7533; 22182</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11709; 28642</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4024; 16085</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9046; 34388</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13809; 32111</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>18815; 40372</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>11239; 27939</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11262; 39813</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19369</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>18226</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21957</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12466</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>37658</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>30542</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>22237</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>27139</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>57027</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>48768</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>44194</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>39605</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11122; 29270</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11101; 30937</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13644; 34220</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5525; 25675</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>26268; 51390</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>21387; 43310</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>14159; 32256</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>14111; 41835</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>41500; 73948</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>37319; 65877</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>32526; 58239</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>26849; 59359</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>25876</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>30624</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>22332</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>28577</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>35661</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>78984</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>39386</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>29140</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>61537</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>109608</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>61718</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>57718</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15791; 38122</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20448; 43428</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14074; 33817</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18871; 41675</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>25227; 48921</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>65192; 99956</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>28630; 53327</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>21573; 39075</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>47338; 79090</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>91113; 133261</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>48347; 80161</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>44255; 72381</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>23828</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>39833</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>40925</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>41820</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>50362</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>80035</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>62154</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>61505</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>74190</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>119868</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>103079</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>103324</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>15570; 35528</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>28290; 56301</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>29848; 55910</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>17689; 65311</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>38512; 65281</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>64394; 97804</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>47977; 79377</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>48539; 80580</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>59212; 94528</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>99765; 145888</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>83753; 123395</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>58819; 133625</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>28853</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>39614</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>27136</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>43278</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>39585</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>88035</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>79290</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>68127</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>68439</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>127649</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>106427</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>111405</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>19679; 40276</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>28169; 53118</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>18449; 39460</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>33720; 57307</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>29119; 53026</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>72596; 105551</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>64306; 98624</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>56922; 79667</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>54597; 86498</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>106856; 149854</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>87294; 129971</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>94601; 128524</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>30442</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>39373</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>29645</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>27789</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>48737</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>75122</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>67824</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>56096</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>79179</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>114494</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>97469</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>83885</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>21519; 42076</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>28772; 52591</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>20165; 41541</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>19602; 35952</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>38210; 62445</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>61360; 92215</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>52353; 82677</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>22801; 89450</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>63162; 96392</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>95508; 134734</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>78781; 115213</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>40698; 111064</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>33613</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>53720</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>30098</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>30462</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>61404</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>124081</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>98375</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>104572</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>95017</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>177801</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>128474</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>135034</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>23944; 44783</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>40405; 69523</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>21242; 40606</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>22903; 40275</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>47733; 79738</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>104642; 143777</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>78270; 118493</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>92448; 119368</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>78230; 116059</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>154410; 201479</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>106815; 153333</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>119911; 150416</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>822</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>170534</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>230586</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>181408</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>187834</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>286809</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>496210</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>378113</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>365157</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>457343</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>726796</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>559521</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>552991</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>146413; 197135</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>202429; 265576</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>157335; 209501</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>143983; 218652</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>253234; 321680</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>458056; 540116</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>341007; 415129</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>297598; 405500</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>416591; 501248</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>674567; 780114</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>512014; 603749</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>477718; 608844</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>